--- a/Wireframe/graph.xlsx
+++ b/Wireframe/graph.xlsx
@@ -14,13 +14,27 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>arm extension</t>
+  </si>
+  <si>
+    <t>sit to stand</t>
+  </si>
+  <si>
+    <t>hip extension</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -324,7 +338,258 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ex</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-845F-4B95-928F-8339D1FFFB5B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$29:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-845F-4B95-928F-8339D1FFFB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="48"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -880,6 +1145,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -913,6 +1697,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069FA3F1-7C26-410F-BACB-3AC8FAADEED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1185,10 +2005,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B5:C14"/>
+  <dimension ref="B5:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1273,6 +2093,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f>100-C29-D29</f>
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
